--- a/wash_P/ECU.xlsx
+++ b/wash_P/ECU.xlsx
@@ -65386,7 +65386,7 @@
         <v>0</v>
       </c>
       <c r="DA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB21" t="n">
         <v>0</v>
